--- a/dataanalysis/data/predictions/1400/07211414_1751.xlsx
+++ b/dataanalysis/data/predictions/1400/07211414_1751.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -398,12 +401,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -761,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,19 +846,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-2.96</v>
@@ -879,7 +879,7 @@
         <v>58427.56</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -899,8 +899,23 @@
       <c r="P2">
         <v>-0.21</v>
       </c>
+      <c r="Q2">
+        <v>0.2</v>
+      </c>
+      <c r="R2">
+        <v>5.15</v>
+      </c>
+      <c r="S2">
+        <v>4.89</v>
+      </c>
       <c r="V2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -908,22 +923,25 @@
       <c r="Z2">
         <v>3.775027990341187</v>
       </c>
-      <c r="AA2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>4.33</v>
@@ -941,7 +959,7 @@
         <v>86614.14999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -961,8 +979,23 @@
       <c r="P3">
         <v>0.5</v>
       </c>
+      <c r="Q3">
+        <v>0.91</v>
+      </c>
+      <c r="R3">
+        <v>24.29</v>
+      </c>
+      <c r="S3">
+        <v>5.11</v>
+      </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -970,22 +1003,25 @@
       <c r="Z3">
         <v>2.633527994155884</v>
       </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1.27</v>
@@ -1003,7 +1039,7 @@
         <v>81358.41</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1023,8 +1059,23 @@
       <c r="P4">
         <v>-0.86</v>
       </c>
+      <c r="Q4">
+        <v>-2.16</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <v>0.42</v>
+      </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1032,22 +1083,25 @@
       <c r="Z4">
         <v>1.708869099617004</v>
       </c>
-      <c r="AA4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>3.07</v>
@@ -1065,7 +1119,7 @@
         <v>129497.22</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1085,8 +1139,23 @@
       <c r="P5">
         <v>0.3</v>
       </c>
+      <c r="Q5">
+        <v>-7.07</v>
+      </c>
+      <c r="R5">
+        <v>6.8</v>
+      </c>
+      <c r="S5">
+        <v>1.34</v>
+      </c>
       <c r="V5" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1094,22 +1163,25 @@
       <c r="Z5">
         <v>4.396194934844971</v>
       </c>
-      <c r="AA5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300180</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-1.2</v>
@@ -1127,7 +1199,7 @@
         <v>80507.56</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>24</v>
@@ -1147,8 +1219,23 @@
       <c r="P6">
         <v>-0.47</v>
       </c>
+      <c r="Q6">
+        <v>-1.87</v>
+      </c>
+      <c r="R6">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.66</v>
+      </c>
       <c r="V6" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1156,22 +1243,25 @@
       <c r="Z6">
         <v>2.161010265350342</v>
       </c>
-      <c r="AA6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300195</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.84</v>
@@ -1189,7 +1279,7 @@
         <v>33605.85</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1209,8 +1299,23 @@
       <c r="P7">
         <v>0.37</v>
       </c>
+      <c r="Q7">
+        <v>-0.72</v>
+      </c>
+      <c r="R7">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S7">
+        <v>5.78</v>
+      </c>
       <c r="V7" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1218,22 +1323,25 @@
       <c r="Z7">
         <v>2.544626235961914</v>
       </c>
-      <c r="AA7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-1.45</v>
@@ -1251,7 +1359,7 @@
         <v>119217.91</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1271,8 +1379,23 @@
       <c r="P8">
         <v>-1.09</v>
       </c>
+      <c r="Q8">
+        <v>0.59</v>
+      </c>
+      <c r="R8">
+        <v>19.97</v>
+      </c>
+      <c r="S8">
+        <v>5.11</v>
+      </c>
       <c r="V8" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1280,22 +1403,25 @@
       <c r="Z8">
         <v>4.562191486358643</v>
       </c>
-      <c r="AA8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300283</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-5.21</v>
@@ -1313,7 +1439,7 @@
         <v>71754.96000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1333,8 +1459,23 @@
       <c r="P9">
         <v>-2.46</v>
       </c>
+      <c r="Q9">
+        <v>-3.2</v>
+      </c>
+      <c r="R9">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="S9">
+        <v>1.22</v>
+      </c>
       <c r="V9" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1342,22 +1483,25 @@
       <c r="Z9">
         <v>5.275574207305908</v>
       </c>
-      <c r="AA9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300291</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-0.96</v>
@@ -1375,7 +1519,7 @@
         <v>24372.5</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1395,8 +1539,23 @@
       <c r="P10">
         <v>-0.15</v>
       </c>
+      <c r="Q10">
+        <v>0.32</v>
+      </c>
+      <c r="R10">
+        <v>6.23</v>
+      </c>
+      <c r="S10">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="V10" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1404,22 +1563,25 @@
       <c r="Z10">
         <v>6.717472553253174</v>
       </c>
-      <c r="AA10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300308</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>2.59</v>
@@ -1437,7 +1599,7 @@
         <v>850322.9399999999</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1457,8 +1619,23 @@
       <c r="P11">
         <v>0.29</v>
       </c>
+      <c r="Q11">
+        <v>-1.87</v>
+      </c>
+      <c r="R11">
+        <v>197.1</v>
+      </c>
+      <c r="S11">
+        <v>6.37</v>
+      </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1466,22 +1643,25 @@
       <c r="Z11">
         <v>5.924740791320801</v>
       </c>
-      <c r="AA11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300348</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-3.59</v>
@@ -1499,7 +1679,7 @@
         <v>152057.57</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1519,8 +1699,23 @@
       <c r="P12">
         <v>-2.47</v>
       </c>
+      <c r="Q12">
+        <v>-2.4</v>
+      </c>
+      <c r="R12">
+        <v>18.35</v>
+      </c>
+      <c r="S12">
+        <v>0.38</v>
+      </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1528,22 +1723,25 @@
       <c r="Z12">
         <v>4.202503204345703</v>
       </c>
-      <c r="AA12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300414</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2.33</v>
@@ -1561,7 +1759,7 @@
         <v>45239.66</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1581,8 +1779,23 @@
       <c r="P13">
         <v>0.24</v>
       </c>
+      <c r="Q13">
+        <v>2.86</v>
+      </c>
+      <c r="R13">
+        <v>14.79</v>
+      </c>
+      <c r="S13">
+        <v>8.43</v>
+      </c>
       <c r="V13" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1590,22 +1803,25 @@
       <c r="Z13">
         <v>5.603394031524658</v>
       </c>
-      <c r="AA13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>4.84</v>
@@ -1623,7 +1839,7 @@
         <v>123465.11</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>13</v>
@@ -1643,8 +1859,23 @@
       <c r="P14">
         <v>0.67</v>
       </c>
+      <c r="Q14">
+        <v>-5.51</v>
+      </c>
+      <c r="R14">
+        <v>77.61</v>
+      </c>
+      <c r="S14">
+        <v>5.45</v>
+      </c>
       <c r="V14" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1652,22 +1883,25 @@
       <c r="Z14">
         <v>6.568463802337646</v>
       </c>
-      <c r="AA14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-0.39</v>
@@ -1685,7 +1919,7 @@
         <v>60237.4</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1705,8 +1939,23 @@
       <c r="P15">
         <v>-0.3</v>
       </c>
+      <c r="Q15">
+        <v>-1.11</v>
+      </c>
+      <c r="R15">
+        <v>48.04</v>
+      </c>
+      <c r="S15">
+        <v>5.21</v>
+      </c>
       <c r="V15" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1714,22 +1963,25 @@
       <c r="Z15">
         <v>1.71398937702179</v>
       </c>
-      <c r="AA15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300502</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-2.36</v>
@@ -1747,7 +1999,7 @@
         <v>913390.49</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>19</v>
@@ -1767,8 +2019,23 @@
       <c r="P16">
         <v>-0.37</v>
       </c>
+      <c r="Q16">
+        <v>-0.87</v>
+      </c>
+      <c r="R16">
+        <v>184.2</v>
+      </c>
+      <c r="S16">
+        <v>3.47</v>
+      </c>
       <c r="V16" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1776,22 +2043,25 @@
       <c r="Z16">
         <v>4.421491622924805</v>
       </c>
-      <c r="AA16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300522</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0.12</v>
@@ -1809,7 +2079,7 @@
         <v>46720.18</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -1829,8 +2099,23 @@
       <c r="P17">
         <v>-0.55</v>
       </c>
+      <c r="Q17">
+        <v>-1.91</v>
+      </c>
+      <c r="R17">
+        <v>17.59</v>
+      </c>
+      <c r="S17">
+        <v>4.89</v>
+      </c>
       <c r="V17" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1838,22 +2123,25 @@
       <c r="Z17">
         <v>0.3478497564792633</v>
       </c>
-      <c r="AA17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300527</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.45</v>
@@ -1871,7 +2159,7 @@
         <v>47703.53</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>15</v>
@@ -1891,8 +2179,23 @@
       <c r="P18">
         <v>-0.53</v>
       </c>
+      <c r="Q18">
+        <v>10.39</v>
+      </c>
+      <c r="R18">
+        <v>12.74</v>
+      </c>
+      <c r="S18">
+        <v>14.88</v>
+      </c>
       <c r="V18" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1900,22 +2203,25 @@
       <c r="Z18">
         <v>3.667646646499634</v>
       </c>
-      <c r="AA18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300533</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>1.9</v>
@@ -1933,7 +2239,7 @@
         <v>58195.67</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>19</v>
@@ -1953,8 +2259,23 @@
       <c r="P19">
         <v>-0.21</v>
       </c>
+      <c r="Q19">
+        <v>-2.54</v>
+      </c>
+      <c r="R19">
+        <v>37.29</v>
+      </c>
+      <c r="S19">
+        <v>0.65</v>
+      </c>
       <c r="V19" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1962,22 +2283,25 @@
       <c r="Z19">
         <v>6.876218318939209</v>
       </c>
-      <c r="AA19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300537</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0.71</v>
@@ -1995,7 +2319,7 @@
         <v>34403.4</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20">
         <v>16</v>
@@ -2015,8 +2339,23 @@
       <c r="P20">
         <v>0.78</v>
       </c>
+      <c r="Q20">
+        <v>-1.34</v>
+      </c>
+      <c r="R20">
+        <v>25.74</v>
+      </c>
+      <c r="S20">
+        <v>0.66</v>
+      </c>
       <c r="V20" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2024,22 +2363,25 @@
       <c r="Z20">
         <v>2.908547878265381</v>
       </c>
-      <c r="AA20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300548</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-1.2</v>
@@ -2057,7 +2399,7 @@
         <v>177713.33</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2077,8 +2419,23 @@
       <c r="P21">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q21">
+        <v>1.7</v>
+      </c>
+      <c r="R21">
+        <v>92.7</v>
+      </c>
+      <c r="S21">
+        <v>8.92</v>
+      </c>
       <c r="V21" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -2086,22 +2443,25 @@
       <c r="Z21">
         <v>5.281060218811035</v>
       </c>
-      <c r="AA21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300591</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>1.89</v>
@@ -2119,7 +2479,7 @@
         <v>102412.79</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -2139,8 +2499,23 @@
       <c r="P22">
         <v>0.65</v>
       </c>
+      <c r="Q22">
+        <v>5.09</v>
+      </c>
+      <c r="R22">
+        <v>13.31</v>
+      </c>
+      <c r="S22">
+        <v>7.34</v>
+      </c>
       <c r="V22" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2148,22 +2523,25 @@
       <c r="Z22">
         <v>0.4769241511821747</v>
       </c>
-      <c r="AA22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300600</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-1.13</v>
@@ -2181,7 +2559,7 @@
         <v>30815.56</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>17</v>
@@ -2201,8 +2579,23 @@
       <c r="P23">
         <v>-0.24</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>16.44</v>
+      </c>
+      <c r="S23">
+        <v>4.65</v>
+      </c>
       <c r="V23" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2210,22 +2603,25 @@
       <c r="Z23">
         <v>3.745717763900757</v>
       </c>
-      <c r="AA23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300631</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>2.2</v>
@@ -2243,7 +2639,7 @@
         <v>119644.66</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2263,8 +2659,23 @@
       <c r="P24">
         <v>-1.33</v>
       </c>
+      <c r="Q24">
+        <v>-6.45</v>
+      </c>
+      <c r="R24">
+        <v>33.45</v>
+      </c>
+      <c r="S24">
+        <v>-2.73</v>
+      </c>
       <c r="V24" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2272,22 +2683,25 @@
       <c r="Z24">
         <v>2.12988805770874</v>
       </c>
-      <c r="AA24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300644</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>9.199999999999999</v>
@@ -2305,7 +2719,7 @@
         <v>102016.46</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2325,8 +2739,23 @@
       <c r="P25">
         <v>0.95</v>
       </c>
+      <c r="Q25">
+        <v>-6.7</v>
+      </c>
+      <c r="R25">
+        <v>35.28</v>
+      </c>
+      <c r="S25">
+        <v>-3.84</v>
+      </c>
       <c r="V25" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2334,22 +2763,25 @@
       <c r="Z25">
         <v>4.100624561309814</v>
       </c>
-      <c r="AA25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300683</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -2367,7 +2799,7 @@
         <v>64971.14</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2387,8 +2819,23 @@
       <c r="P26">
         <v>0.47</v>
       </c>
+      <c r="Q26">
+        <v>7.65</v>
+      </c>
+      <c r="R26">
+        <v>42.5</v>
+      </c>
+      <c r="S26">
+        <v>12.08</v>
+      </c>
       <c r="V26" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2396,22 +2843,25 @@
       <c r="Z26">
         <v>22.89748954772949</v>
       </c>
-      <c r="AA26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300703</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>2.8</v>
@@ -2429,7 +2879,7 @@
         <v>36183.48</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -2449,8 +2899,23 @@
       <c r="P27">
         <v>0.51</v>
       </c>
+      <c r="Q27">
+        <v>-5.51</v>
+      </c>
+      <c r="R27">
+        <v>26.22</v>
+      </c>
+      <c r="S27">
+        <v>0.42</v>
+      </c>
       <c r="V27" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2458,22 +2923,25 @@
       <c r="Z27">
         <v>1.928616285324097</v>
       </c>
-      <c r="AA27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300748</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0.34</v>
@@ -2491,7 +2959,7 @@
         <v>211958.92</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -2511,8 +2979,23 @@
       <c r="P28">
         <v>-0.02</v>
       </c>
+      <c r="Q28">
+        <v>-0.34</v>
+      </c>
+      <c r="R28">
+        <v>27.37</v>
+      </c>
+      <c r="S28">
+        <v>2.05</v>
+      </c>
       <c r="V28" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2520,22 +3003,25 @@
       <c r="Z28">
         <v>3.272280216217041</v>
       </c>
-      <c r="AA28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300803</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-2.09</v>
@@ -2553,7 +3039,7 @@
         <v>342813.24</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>17</v>
@@ -2573,8 +3059,23 @@
       <c r="P29">
         <v>-1.05</v>
       </c>
+      <c r="Q29">
+        <v>2.51</v>
+      </c>
+      <c r="R29">
+        <v>88.15000000000001</v>
+      </c>
+      <c r="S29">
+        <v>4.11</v>
+      </c>
       <c r="V29" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2582,22 +3083,25 @@
       <c r="Z29">
         <v>2.110402584075928</v>
       </c>
-      <c r="AA29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300839</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>1.47</v>
@@ -2615,7 +3119,7 @@
         <v>38293.51</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2635,8 +3139,23 @@
       <c r="P30">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="Q30">
+        <v>-4.34</v>
+      </c>
+      <c r="R30">
+        <v>14.83</v>
+      </c>
+      <c r="S30">
+        <v>2.56</v>
+      </c>
       <c r="V30" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2644,22 +3163,25 @@
       <c r="Z30">
         <v>7.321207523345947</v>
       </c>
-      <c r="AA30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300872</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0.21</v>
@@ -2677,7 +3199,7 @@
         <v>141978.2</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31">
         <v>26</v>
@@ -2697,8 +3219,23 @@
       <c r="P31">
         <v>0.04</v>
       </c>
+      <c r="Q31">
+        <v>4.49</v>
+      </c>
+      <c r="R31">
+        <v>25.68</v>
+      </c>
+      <c r="S31">
+        <v>6.2</v>
+      </c>
       <c r="V31" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2706,22 +3243,25 @@
       <c r="Z31">
         <v>2.175423383712769</v>
       </c>
-      <c r="AA31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300878</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>4.22</v>
@@ -2739,7 +3279,7 @@
         <v>35229.53</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2759,8 +3299,23 @@
       <c r="P32">
         <v>-0.09</v>
       </c>
+      <c r="Q32">
+        <v>-6.68</v>
+      </c>
+      <c r="R32">
+        <v>23.25</v>
+      </c>
+      <c r="S32">
+        <v>2.42</v>
+      </c>
       <c r="V32" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2768,22 +3323,25 @@
       <c r="Z32">
         <v>-2.147352695465088</v>
       </c>
-      <c r="AA32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300950</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-7.38</v>
@@ -2801,7 +3359,7 @@
         <v>61124.42</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2821,8 +3379,23 @@
       <c r="P33">
         <v>0.86</v>
       </c>
+      <c r="Q33">
+        <v>-6.24</v>
+      </c>
+      <c r="R33">
+        <v>30.98</v>
+      </c>
+      <c r="S33">
+        <v>-0.9</v>
+      </c>
       <c r="V33" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2830,22 +3403,25 @@
       <c r="Z33">
         <v>6.212636470794678</v>
       </c>
-      <c r="AA33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>301012</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>2.99</v>
@@ -2863,7 +3439,7 @@
         <v>64670.63</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2883,8 +3459,23 @@
       <c r="P34">
         <v>-0.42</v>
       </c>
+      <c r="Q34">
+        <v>-4.77</v>
+      </c>
+      <c r="R34">
+        <v>23.71</v>
+      </c>
+      <c r="S34">
+        <v>-1.74</v>
+      </c>
       <c r="V34" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2892,22 +3483,25 @@
       <c r="Z34">
         <v>-0.9448004364967346</v>
       </c>
-      <c r="AA34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>301132</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-2.8</v>
@@ -2925,7 +3519,7 @@
         <v>55464.14</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2945,8 +3539,23 @@
       <c r="P35">
         <v>-1.52</v>
       </c>
+      <c r="Q35">
+        <v>-2.99</v>
+      </c>
+      <c r="R35">
+        <v>38.45</v>
+      </c>
+      <c r="S35">
+        <v>0.87</v>
+      </c>
       <c r="V35" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2954,22 +3563,25 @@
       <c r="Z35">
         <v>-0.8811640739440918</v>
       </c>
-      <c r="AA35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301141</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-2.82</v>
@@ -2987,7 +3599,7 @@
         <v>80327.00999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K36">
         <v>17</v>
@@ -3007,8 +3619,23 @@
       <c r="P36">
         <v>-0.76</v>
       </c>
+      <c r="Q36">
+        <v>-4.01</v>
+      </c>
+      <c r="R36">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="S36">
+        <v>-1.21</v>
+      </c>
       <c r="V36" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3016,22 +3643,25 @@
       <c r="Z36">
         <v>4.132168292999268</v>
       </c>
-      <c r="AA36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301165</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-1.34</v>
@@ -3049,7 +3679,7 @@
         <v>44771.71</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3069,8 +3699,23 @@
       <c r="P37">
         <v>-0.34</v>
       </c>
+      <c r="Q37">
+        <v>-0.85</v>
+      </c>
+      <c r="R37">
+        <v>64.5</v>
+      </c>
+      <c r="S37">
+        <v>3.37</v>
+      </c>
       <c r="V37" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3078,22 +3723,25 @@
       <c r="Z37">
         <v>6.207945823669434</v>
       </c>
-      <c r="AA37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301176</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>1.85</v>
@@ -3111,7 +3759,7 @@
         <v>32280.93</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>22</v>
@@ -3131,8 +3779,23 @@
       <c r="P38">
         <v>-1.46</v>
       </c>
+      <c r="Q38">
+        <v>-4.61</v>
+      </c>
+      <c r="R38">
+        <v>34.45</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
       <c r="V38" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3140,22 +3803,25 @@
       <c r="Z38">
         <v>2.623907089233398</v>
       </c>
-      <c r="AA38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301183</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-1.35</v>
@@ -3173,7 +3839,7 @@
         <v>57215.7</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3193,8 +3859,23 @@
       <c r="P39">
         <v>0.41</v>
       </c>
+      <c r="Q39">
+        <v>-6.89</v>
+      </c>
+      <c r="R39">
+        <v>74.8</v>
+      </c>
+      <c r="S39">
+        <v>0.31</v>
+      </c>
       <c r="V39" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3202,22 +3883,25 @@
       <c r="Z39">
         <v>3.592185020446777</v>
       </c>
-      <c r="AA39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301217</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-0.84</v>
@@ -3235,7 +3919,7 @@
         <v>171137.72</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>11</v>
@@ -3255,8 +3939,23 @@
       <c r="P40">
         <v>-0.64</v>
       </c>
+      <c r="Q40">
+        <v>-5.25</v>
+      </c>
+      <c r="R40">
+        <v>22.16</v>
+      </c>
+      <c r="S40">
+        <v>3.84</v>
+      </c>
       <c r="V40" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3264,22 +3963,25 @@
       <c r="Z40">
         <v>1.16441810131073</v>
       </c>
-      <c r="AA40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301265</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-4.8</v>
@@ -3297,7 +3999,7 @@
         <v>34770.05</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -3317,8 +4019,23 @@
       <c r="P41">
         <v>-0.16</v>
       </c>
+      <c r="Q41">
+        <v>-2.8</v>
+      </c>
+      <c r="R41">
+        <v>13.17</v>
+      </c>
+      <c r="S41">
+        <v>2.25</v>
+      </c>
       <c r="V41" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -3326,22 +4043,25 @@
       <c r="Z41">
         <v>13.90781402587891</v>
       </c>
-      <c r="AA41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301345</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-1.66</v>
@@ -3359,7 +4079,7 @@
         <v>21744.57</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K42">
         <v>15</v>
@@ -3379,8 +4099,23 @@
       <c r="P42">
         <v>-0.54</v>
       </c>
+      <c r="Q42">
+        <v>-1.31</v>
+      </c>
+      <c r="R42">
+        <v>137.1</v>
+      </c>
+      <c r="S42">
+        <v>0.44</v>
+      </c>
       <c r="V42" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3388,22 +4123,25 @@
       <c r="Z42">
         <v>2.176356077194214</v>
       </c>
-      <c r="AA42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301357</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-0.47</v>
@@ -3421,7 +4159,7 @@
         <v>48619.79</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -3441,8 +4179,23 @@
       <c r="P43">
         <v>-0.2</v>
       </c>
+      <c r="Q43">
+        <v>8.5</v>
+      </c>
+      <c r="R43">
+        <v>95.61</v>
+      </c>
+      <c r="S43">
+        <v>14.89</v>
+      </c>
       <c r="V43" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3450,22 +4203,25 @@
       <c r="Z43">
         <v>5.838408470153809</v>
       </c>
-      <c r="AA43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301377</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0.24</v>
@@ -3483,7 +4239,7 @@
         <v>43767.03</v>
       </c>
       <c r="J44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -3503,8 +4259,23 @@
       <c r="P44">
         <v>-1.07</v>
       </c>
+      <c r="Q44">
+        <v>0.89</v>
+      </c>
+      <c r="R44">
+        <v>46.99</v>
+      </c>
+      <c r="S44">
+        <v>4.21</v>
+      </c>
       <c r="V44" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3512,22 +4283,25 @@
       <c r="Z44">
         <v>0.4992363452911377</v>
       </c>
-      <c r="AA44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301388</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-3.08</v>
@@ -3545,7 +4319,7 @@
         <v>33765.24</v>
       </c>
       <c r="J45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -3565,8 +4339,23 @@
       <c r="P45">
         <v>-0.95</v>
       </c>
+      <c r="Q45">
+        <v>-5.57</v>
+      </c>
+      <c r="R45">
+        <v>39.88</v>
+      </c>
+      <c r="S45">
+        <v>2.34</v>
+      </c>
       <c r="V45" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3574,22 +4363,25 @@
       <c r="Z45">
         <v>5.165277481079102</v>
       </c>
-      <c r="AA45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301389</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>2.05</v>
@@ -3607,7 +4399,7 @@
         <v>64579.94</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -3627,8 +4419,23 @@
       <c r="P46">
         <v>-0.55</v>
       </c>
+      <c r="Q46">
+        <v>-5.74</v>
+      </c>
+      <c r="R46">
+        <v>34.77</v>
+      </c>
+      <c r="S46">
+        <v>2.87</v>
+      </c>
       <c r="V46" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3636,22 +4443,25 @@
       <c r="Z46">
         <v>7.787844657897949</v>
       </c>
-      <c r="AA46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301421</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-1.25</v>
@@ -3669,7 +4479,7 @@
         <v>37233.82</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K47">
         <v>21</v>
@@ -3689,8 +4499,23 @@
       <c r="P47">
         <v>1</v>
       </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>78.31</v>
+      </c>
+      <c r="S47">
+        <v>4.32</v>
+      </c>
       <c r="V47" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3698,22 +4523,25 @@
       <c r="Z47">
         <v>8.258530616760254</v>
       </c>
-      <c r="AA47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301511</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>15.01</v>
@@ -3731,7 +4559,7 @@
         <v>144254.43</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K48">
         <v>20</v>
@@ -3751,8 +4579,23 @@
       <c r="P48">
         <v>0.2</v>
       </c>
+      <c r="Q48">
+        <v>-4.31</v>
+      </c>
+      <c r="R48">
+        <v>29.31</v>
+      </c>
+      <c r="S48">
+        <v>0.14</v>
+      </c>
       <c r="V48" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3760,22 +4603,25 @@
       <c r="Z48">
         <v>3.015608072280884</v>
       </c>
-      <c r="AA48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301526</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>2.03</v>
@@ -3793,7 +4639,7 @@
         <v>60159.87</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K49">
         <v>10</v>
@@ -3813,8 +4659,23 @@
       <c r="P49">
         <v>-0.14</v>
       </c>
+      <c r="Q49">
+        <v>-2.38</v>
+      </c>
+      <c r="R49">
+        <v>5.13</v>
+      </c>
+      <c r="S49">
+        <v>1.99</v>
+      </c>
       <c r="V49" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3822,22 +4683,25 @@
       <c r="Z49">
         <v>6.20134449005127</v>
       </c>
-      <c r="AA49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>688062</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-0.47</v>
@@ -3855,7 +4719,7 @@
         <v>63109.86</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K50">
         <v>13</v>
@@ -3875,8 +4739,23 @@
       <c r="P50">
         <v>0.76</v>
       </c>
+      <c r="Q50">
+        <v>-6.94</v>
+      </c>
+      <c r="R50">
+        <v>35.95</v>
+      </c>
+      <c r="S50">
+        <v>-0.5</v>
+      </c>
       <c r="V50" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3884,22 +4763,25 @@
       <c r="Z50">
         <v>4.048028945922852</v>
       </c>
-      <c r="AA50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>688084</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>7.04</v>
@@ -3917,7 +4799,7 @@
         <v>33865.04</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3937,8 +4819,23 @@
       <c r="P51">
         <v>-0.2</v>
       </c>
+      <c r="Q51">
+        <v>2.65</v>
+      </c>
+      <c r="R51">
+        <v>113.3</v>
+      </c>
+      <c r="S51">
+        <v>4.52</v>
+      </c>
       <c r="V51" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3946,22 +4843,25 @@
       <c r="Z51">
         <v>5.207778930664062</v>
       </c>
-      <c r="AA51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>688117</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>0.59</v>
@@ -3979,7 +4879,7 @@
         <v>49234.86</v>
       </c>
       <c r="J52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -3999,8 +4899,23 @@
       <c r="P52">
         <v>-0.82</v>
       </c>
+      <c r="Q52">
+        <v>-4.89</v>
+      </c>
+      <c r="R52">
+        <v>43.51</v>
+      </c>
+      <c r="S52">
+        <v>1.85</v>
+      </c>
       <c r="V52" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4008,22 +4923,25 @@
       <c r="Z52">
         <v>2.042844295501709</v>
       </c>
-      <c r="AA52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>688202</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-2.29</v>
@@ -4041,7 +4959,7 @@
         <v>57998.53</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K53">
         <v>10</v>
@@ -4061,8 +4979,23 @@
       <c r="P53">
         <v>-0.45</v>
       </c>
+      <c r="Q53">
+        <v>0.88</v>
+      </c>
+      <c r="R53">
+        <v>62.3</v>
+      </c>
+      <c r="S53">
+        <v>6.62</v>
+      </c>
       <c r="V53" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4070,22 +5003,25 @@
       <c r="Z53">
         <v>4.801643371582031</v>
       </c>
-      <c r="AA53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>688221</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>5.75</v>
@@ -4103,7 +5039,7 @@
         <v>69412.92999999999</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K54">
         <v>11</v>
@@ -4123,8 +5059,23 @@
       <c r="P54">
         <v>0.57</v>
       </c>
+      <c r="Q54">
+        <v>7.43</v>
+      </c>
+      <c r="R54">
+        <v>24.18</v>
+      </c>
+      <c r="S54">
+        <v>6.9</v>
+      </c>
       <c r="V54" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4132,22 +5083,25 @@
       <c r="Z54">
         <v>4.562144756317139</v>
       </c>
-      <c r="AA54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688222</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>6.88</v>
@@ -4165,7 +5119,7 @@
         <v>124026.68</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -4185,8 +5139,23 @@
       <c r="P55">
         <v>-0.04</v>
       </c>
+      <c r="Q55">
+        <v>4.18</v>
+      </c>
+      <c r="R55">
+        <v>26.49</v>
+      </c>
+      <c r="S55">
+        <v>11.44</v>
+      </c>
       <c r="V55" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4194,22 +5163,25 @@
       <c r="Z55">
         <v>5.298443794250488</v>
       </c>
-      <c r="AA55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688313</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-1.03</v>
@@ -4227,7 +5199,7 @@
         <v>122929.95</v>
       </c>
       <c r="J56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K56">
         <v>24</v>
@@ -4247,8 +5219,23 @@
       <c r="P56">
         <v>0.12</v>
       </c>
+      <c r="Q56">
+        <v>4.61</v>
+      </c>
+      <c r="R56">
+        <v>59.77</v>
+      </c>
+      <c r="S56">
+        <v>12.88</v>
+      </c>
       <c r="V56" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -4256,22 +5243,25 @@
       <c r="Z56">
         <v>6.983832359313965</v>
       </c>
-      <c r="AA56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688317</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>2.29</v>
@@ -4289,7 +5279,7 @@
         <v>25633.16</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -4309,8 +5299,23 @@
       <c r="P57">
         <v>-0.37</v>
       </c>
+      <c r="Q57">
+        <v>-3</v>
+      </c>
+      <c r="R57">
+        <v>23.43</v>
+      </c>
+      <c r="S57">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="V57" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4318,22 +5323,25 @@
       <c r="Z57">
         <v>3.591404676437378</v>
       </c>
-      <c r="AA57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688321</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>0.06</v>
@@ -4351,7 +5359,7 @@
         <v>92256.3</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K58">
         <v>15</v>
@@ -4371,8 +5379,23 @@
       <c r="P58">
         <v>-0.78</v>
       </c>
+      <c r="Q58">
+        <v>1.93</v>
+      </c>
+      <c r="R58">
+        <v>37.64</v>
+      </c>
+      <c r="S58">
+        <v>4.64</v>
+      </c>
       <c r="V58" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4380,22 +5403,25 @@
       <c r="Z58">
         <v>2.122534036636353</v>
       </c>
-      <c r="AA58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688499</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>0.41</v>
@@ -4413,7 +5439,7 @@
         <v>80360.03</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K59">
         <v>25</v>
@@ -4433,8 +5459,23 @@
       <c r="P59">
         <v>0.31</v>
       </c>
+      <c r="Q59">
+        <v>7.77</v>
+      </c>
+      <c r="R59">
+        <v>55.62</v>
+      </c>
+      <c r="S59">
+        <v>13.88</v>
+      </c>
       <c r="V59" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4442,22 +5483,25 @@
       <c r="Z59">
         <v>0.4338310360908508</v>
       </c>
-      <c r="AA59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688543</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>0.28</v>
@@ -4475,7 +5519,7 @@
         <v>39713.34</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -4495,8 +5539,23 @@
       <c r="P60">
         <v>0.83</v>
       </c>
+      <c r="Q60">
+        <v>-0.68</v>
+      </c>
+      <c r="R60">
+        <v>55.45</v>
+      </c>
+      <c r="S60">
+        <v>1.97</v>
+      </c>
       <c r="V60" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4504,8 +5563,11 @@
       <c r="Z60">
         <v>2.080995321273804</v>
       </c>
-      <c r="AA60" t="s">
-        <v>128</v>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
